--- a/GSA-WA Workshop/Antrim_data/Antrim Collar.xlsx
+++ b/GSA-WA Workshop/Antrim_data/Antrim Collar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://curtin-my.sharepoint.com/personal/283284g_curtin_edu_au/Documents/PycharmProjects/PythonWorkshop/GSA-WA Workshop/Antrim_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{705F27E1-F8E4-4FA2-9CBD-B652CC2F3BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{705F27E1-F8E4-4FA2-9CBD-B652CC2F3BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A37551BC-550D-44E8-B934-F21A166B0F00}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{8A5ED562-450A-452F-8852-A2179ABDBA15}"/>
   </bookViews>
@@ -33,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
-  <si>
-    <t>start date</t>
-  </si>
-  <si>
-    <t>end date</t>
-  </si>
-  <si>
-    <t>map sheet</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>ten holder</t>
-  </si>
-  <si>
-    <t>tenement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>hole</t>
   </si>
@@ -80,27 +62,6 @@
     <t>rl</t>
   </si>
   <si>
-    <t>E22644</t>
-  </si>
-  <si>
-    <t>E22643</t>
-  </si>
-  <si>
-    <t>E22642</t>
-  </si>
-  <si>
-    <t>Ausquest Ltd</t>
-  </si>
-  <si>
-    <t>Antrim</t>
-  </si>
-  <si>
-    <t>SE5207</t>
-  </si>
-  <si>
-    <t>SE5211</t>
-  </si>
-  <si>
     <t>ANT001</t>
   </si>
   <si>
@@ -111,24 +72,6 @@
   </si>
   <si>
     <t>ANT004</t>
-  </si>
-  <si>
-    <t>drill contractors</t>
-  </si>
-  <si>
-    <t>Drillcorp Pty Ltd</t>
-  </si>
-  <si>
-    <t>geologist</t>
-  </si>
-  <si>
-    <t>M Gole</t>
-  </si>
-  <si>
-    <t>rig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDR 1000 Multi-purpose </t>
   </si>
   <si>
     <t>WGS84</t>
@@ -178,9 +121,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -517,99 +459,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B14605-F1D9-4903-BAE2-68D6CE04EC27}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F65536"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>755.7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>104.7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>B2-C2</f>
         <v>651</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>572022</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>7978167</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -617,52 +531,25 @@
       <c r="I2">
         <v>1000</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1">
-        <v>37544</v>
-      </c>
-      <c r="O2" s="1">
-        <v>37555</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>624.70000000000005</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>117</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>B3-C3</f>
         <v>507.70000000000005</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>564818</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>7995173</v>
       </c>
       <c r="G3" t="str">
@@ -675,49 +562,22 @@
       <c r="I3">
         <v>1000</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1">
-        <v>37556</v>
-      </c>
-      <c r="O3" s="1">
-        <v>37564</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
         <v>342.7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>104.7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>B4-C4</f>
         <v>238</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>566928</v>
       </c>
       <c r="F4">
@@ -733,49 +593,22 @@
       <c r="I4">
         <v>1000</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1">
-        <v>37566</v>
-      </c>
-      <c r="O4" s="1">
-        <v>37569</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
         <v>141</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>141</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>B5-C5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>557334</v>
       </c>
       <c r="F5">
@@ -790,33 +623,6 @@
       </c>
       <c r="I5">
         <v>1000</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1">
-        <v>37569</v>
-      </c>
-      <c r="O5" s="1">
-        <v>37570</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
